--- a/GEOMETRY FILE.xlsx
+++ b/GEOMETRY FILE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365.sharepoint.com/sites/bogie/Gedeelde documenten/General/WP4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max-i\PycharmProjects\WP4Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{FC72D927-C8B2-4369-BD49-CD00C8482F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD969C6B-6A3E-47F6-B90B-B70616E3F959}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFFDF6B-95A5-4454-8183-67BAFDF3F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F6659475-1E79-4F83-A54A-E4C47C00529C}"/>
   </bookViews>
@@ -16,12 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">Data!$J$13</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Data!$J$14</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">Data!$J$13</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Data!$J$14</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -573,7 +567,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,13 +612,13 @@
         <v>0.01</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -665,13 +659,13 @@
         <v>0.01</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>140</v>
+        <v>2824</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -712,13 +706,13 @@
         <v>0.05</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4">
-        <v>140</v>
+        <v>328.4</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -753,13 +747,13 @@
         <v>0.05</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -791,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
@@ -817,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>

--- a/GEOMETRY FILE.xlsx
+++ b/GEOMETRY FILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max-i\PycharmProjects\WP4Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFFDF6B-95A5-4454-8183-67BAFDF3F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4322430F-5A3D-4026-BEBB-86FD89990359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F6659475-1E79-4F83-A54A-E4C47C00529C}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,6 +835,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033447E7E0B4FEA47881B842807C0E639" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7bef1e3729c5e2c83f4d8f8ec1f61291">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab0606b2-5cdd-43dc-adce-31fa021071e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db94601c8250c0d0be86c727fbf6c3fa" ns2:_="">
     <xsd:import namespace="ab0606b2-5cdd-43dc-adce-31fa021071e0"/>
@@ -978,15 +987,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -994,6 +994,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B451176-6897-48EF-93CD-AD54A59A7C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282A3559-23E4-4E2F-A8BE-47786CC71415}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1011,14 +1019,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B451176-6897-48EF-93CD-AD54A59A7C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD026C-BA96-46D4-A7ED-224144A660B3}">
   <ds:schemaRefs>

--- a/GEOMETRY FILE.xlsx
+++ b/GEOMETRY FILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max-i\PycharmProjects\WP4Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4322430F-5A3D-4026-BEBB-86FD89990359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7866D9A-D54D-4F7A-AFA5-9FE2B3BADC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F6659475-1E79-4F83-A54A-E4C47C00529C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>X</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>fz[N]</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>l[m]</t>
+  </si>
+  <si>
+    <t>bearing[Pa]</t>
   </si>
 </sst>
 </file>
@@ -564,15 +573,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD8FCE2-6023-40E1-824C-90F5262D8DDE}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,13 +615,16 @@
       <c r="O1" t="s">
         <v>7</v>
       </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C2">
         <v>3.0000000000000001E-3</v>
@@ -642,21 +657,27 @@
         <v>12</v>
       </c>
       <c r="M2" s="2">
-        <v>70000000000</v>
+        <v>71700000000</v>
       </c>
       <c r="N2" s="2">
-        <v>70000000000</v>
+        <v>72400000000</v>
       </c>
       <c r="O2" s="2">
         <v>70000000000</v>
       </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.05</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C3">
         <v>3.0000000000000001E-3</v>
@@ -689,21 +710,21 @@
         <v>13</v>
       </c>
       <c r="M3" s="2">
-        <v>25000000000</v>
+        <v>26900000000</v>
       </c>
       <c r="N3" s="2">
-        <v>25000000000</v>
+        <v>28000000000</v>
       </c>
       <c r="O3" s="2">
         <v>25000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="B4">
-        <v>0.05</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C4">
         <v>3.0000000000000001E-3</v>
@@ -733,18 +754,18 @@
         <v>207000000</v>
       </c>
       <c r="N4" s="2">
-        <v>207000000</v>
+        <v>290000000</v>
       </c>
       <c r="O4" s="2">
         <v>207000000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.05</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C5">
         <v>3.0000000000000001E-3</v>
@@ -771,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="M5" s="2">
-        <v>276000000</v>
+        <v>503000000</v>
       </c>
       <c r="N5" s="2">
         <v>276000000</v>
@@ -780,7 +801,7 @@
         <v>276000000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>17</v>
       </c>
@@ -794,19 +815,19 @@
         <v>207000000</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
-        <v>2.2200000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>2.2200000000000001E-5</v>
+        <v>662000000</v>
       </c>
       <c r="O6" s="2">
-        <v>2.2200000000000001E-5</v>
+        <v>524000000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -819,8 +840,20 @@
       <c r="K7" s="2">
         <v>276000000</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.2200000000000001E-5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.2200000000000001E-5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2.2200000000000001E-5</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
@@ -835,15 +868,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033447E7E0B4FEA47881B842807C0E639" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7bef1e3729c5e2c83f4d8f8ec1f61291">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab0606b2-5cdd-43dc-adce-31fa021071e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db94601c8250c0d0be86c727fbf6c3fa" ns2:_="">
     <xsd:import namespace="ab0606b2-5cdd-43dc-adce-31fa021071e0"/>
@@ -987,6 +1011,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -994,14 +1027,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B451176-6897-48EF-93CD-AD54A59A7C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282A3559-23E4-4E2F-A8BE-47786CC71415}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1019,6 +1044,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B451176-6897-48EF-93CD-AD54A59A7C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD026C-BA96-46D4-A7ED-224144A660B3}">
   <ds:schemaRefs>

--- a/GEOMETRY FILE.xlsx
+++ b/GEOMETRY FILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max-i\PycharmProjects\WP4Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7866D9A-D54D-4F7A-AFA5-9FE2B3BADC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F7DA9-11FF-4DF7-A944-C796BE25F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F6659475-1E79-4F83-A54A-E4C47C00529C}"/>
   </bookViews>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD8FCE2-6023-40E1-824C-90F5262D8DDE}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C2">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -680,7 +680,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C3">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -727,7 +727,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -768,7 +768,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -802,6 +802,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B6">
+        <f>B2+I3</f>
+        <v>2.35E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
@@ -828,6 +838,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B9" si="0">B3+I4</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -854,11 +874,33 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8" s="2">
         <v>2.2200000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -868,6 +910,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033447E7E0B4FEA47881B842807C0E639" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7bef1e3729c5e2c83f4d8f8ec1f61291">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab0606b2-5cdd-43dc-adce-31fa021071e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db94601c8250c0d0be86c727fbf6c3fa" ns2:_="">
     <xsd:import namespace="ab0606b2-5cdd-43dc-adce-31fa021071e0"/>
@@ -1011,22 +1068,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD026C-BA96-46D4-A7ED-224144A660B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ab0606b2-5cdd-43dc-adce-31fa021071e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B451176-6897-48EF-93CD-AD54A59A7C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282A3559-23E4-4E2F-A8BE-47786CC71415}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1042,28 +1108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B451176-6897-48EF-93CD-AD54A59A7C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD026C-BA96-46D4-A7ED-224144A660B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ab0606b2-5cdd-43dc-adce-31fa021071e0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GEOMETRY FILE.xlsx
+++ b/GEOMETRY FILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max-i\PycharmProjects\WP4Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F7DA9-11FF-4DF7-A944-C796BE25F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686F2B80-9A82-4F47-8C54-8C3BE258F716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F6659475-1E79-4F83-A54A-E4C47C00529C}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,19 +627,20 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C2">
-        <v>4.0000000000000001E-3</v>
+        <f>$K$3</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2">
-        <v>5.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -651,7 +652,8 @@
         <v>10</v>
       </c>
       <c r="K2">
-        <v>1.4999999999999999E-2</v>
+        <f>K3+0.001</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -669,18 +671,19 @@
         <v>30</v>
       </c>
       <c r="Q2" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B3">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C3">
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" ref="C3:C9" si="0">$K$3</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -704,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -724,10 +727,11 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="B4">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C4">
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -762,13 +766,14 @@
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B5">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C5">
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -810,7 +815,8 @@
         <v>2.35E-2</v>
       </c>
       <c r="C6">
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -839,20 +845,21 @@
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B9" si="0">B3+I4</f>
+        <f t="shared" ref="B7:B9" si="1">B3+I4</f>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -878,11 +885,12 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C8">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
@@ -893,14 +901,15 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C9">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/GEOMETRY FILE.xlsx
+++ b/GEOMETRY FILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max-i\PycharmProjects\WP4Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686F2B80-9A82-4F47-8C54-8C3BE258F716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF84E93-1024-4D77-AB3F-16677427D30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F6659475-1E79-4F83-A54A-E4C47C00529C}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="C2">
         <f>$K$3</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -646,14 +646,14 @@
         <v>19</v>
       </c>
       <c r="I2">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2">
         <f>K3+0.001</f>
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -676,14 +676,14 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.6E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="B3">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C9" si="0">$K$3</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -707,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="K3">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -743,7 +743,7 @@
         <v>21</v>
       </c>
       <c r="I4">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -761,19 +761,19 @@
         <v>290000000</v>
       </c>
       <c r="O4" s="2">
-        <v>207000000</v>
+        <v>283000000</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1.6E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="B5">
         <v>1.6E-2</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="I5">
-        <v>0.04</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>13</v>
@@ -800,10 +800,10 @@
         <v>503000000</v>
       </c>
       <c r="N5" s="2">
-        <v>276000000</v>
+        <v>414000000</v>
       </c>
       <c r="O5" s="2">
-        <v>276000000</v>
+        <v>345000000</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
@@ -816,13 +816,13 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
@@ -845,15 +845,15 @@
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1.6E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B9" si="1">B3+I4</f>
-        <v>2.1999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -886,11 +886,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>5.6000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.6E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
